--- a/Parser/newListAlert.xlsx
+++ b/Parser/newListAlert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azizbek\Desktop\Education Projects\Parser\Parser\Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F256C3E2-B14A-4239-B887-F45B8BEC0329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C579A201-D787-4FBA-AAF0-41C3DC418B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
